--- a/P13.xlsx
+++ b/P13.xlsx
@@ -3017,4 +3017,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{37276b06-72c2-4081-996b-9af57fe26b63}" enabled="1" method="Standard" siteId="{ac843cea-7a2b-4dc6-9f37-919c3e210fed}" removed="0"/>
+</clbl:labelList>
 </file>